--- a/Carga_por_puerto_F.xlsx
+++ b/Carga_por_puerto_F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38151BC-EB1D-4B9A-B6DB-7F06F0C9FC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1099D3D-3423-4EDB-9012-5FFDBB714710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>

--- a/Carga_por_puerto_F.xlsx
+++ b/Carga_por_puerto_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1099D3D-3423-4EDB-9012-5FFDBB714710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1726A-4B44-4831-B495-D0DE9C6DAB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -137,10 +137,10 @@
     <t>(Miles de toneladas)</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Lázaro Cárdenas</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -418,6 +418,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -427,13 +434,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -488,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}" name="Tabla1" displayName="Tabla1" ref="B4:F100" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}" name="Tabla1" displayName="Tabla1" ref="B4:F100" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
   <autoFilter ref="B4:F100" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}">
     <filterColumn colId="0">
       <filters>
@@ -948,7 +948,7 @@
         <v>2023</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>6</v>
@@ -1220,7 +1220,7 @@
         <v>2022</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>6</v>
@@ -1492,7 +1492,7 @@
         <v>2021</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>6</v>
@@ -1764,7 +1764,7 @@
         <v>2020</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>6</v>
@@ -2036,7 +2036,7 @@
         <v>2019</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>6</v>
@@ -2308,7 +2308,7 @@
         <v>2018</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>6</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">

--- a/Carga_por_puerto_F.xlsx
+++ b/Carga_por_puerto_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1726A-4B44-4831-B495-D0DE9C6DAB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5A5B7-76FB-455A-B2E7-B4F3C3457D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -159,19 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
@@ -185,11 +172,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -316,48 +318,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,77 +341,79 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -452,9 +428,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -474,6 +451,101 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -488,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}" name="Tabla1" displayName="Tabla1" ref="B4:F100" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}" name="Tabla1" displayName="Tabla1" ref="B4:F100" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B4:F100" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}">
     <filterColumn colId="0">
       <filters>
@@ -497,11 +569,11 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C1F9F9B-8E6A-4E79-BB18-0DE53DACE1B1}" name="Año" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{BEE4B670-A008-45AE-BEBE-C5C2D0602D26}" name="Puerto o frontera" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{677275A7-487B-4908-B392-E222205B2DF9}" name="Entidad federativa" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="4" xr3:uid="{A7F965B2-FC03-4EC6-A6DD-09A8B660DD51}" name="Exportaciones " dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="5" xr3:uid="{EE448ACD-528E-41AE-9038-02D69893347A}" name="Importaciones" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="1" xr3:uid="{6C1F9F9B-8E6A-4E79-BB18-0DE53DACE1B1}" name="Año" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{BEE4B670-A008-45AE-BEBE-C5C2D0602D26}" name="Puerto o frontera" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{677275A7-487B-4908-B392-E222205B2DF9}" name="Entidad federativa" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="4" xr3:uid="{A7F965B2-FC03-4EC6-A6DD-09A8B660DD51}" name="Exportaciones " dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="5" xr3:uid="{EE448ACD-528E-41AE-9038-02D69893347A}" name="Importaciones" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,1688 +808,1689 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="24">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>2023</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>877.62882300000001</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="12">
         <v>7814.2296740000102</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="13">
         <v>2023</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <v>1485.4754360000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="16">
         <v>7066.1929925000004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="26">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="17">
         <v>2023</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="20">
         <v>36.539276999999991</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="21">
         <v>844.97558500000105</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2023</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <v>2713.5835829999983</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="16">
         <v>2135.016709</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="26">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="17">
         <v>2023</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="20">
         <v>7184.8739350000014</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="21">
         <v>22339.037281500001</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="13">
         <v>2023</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="15">
         <v>5852.276715</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="16">
         <v>10352.79688</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="26">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
         <v>2023</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="21">
         <v>150.213829</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
         <v>2023</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="15">
         <v>190.29548149999999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="16">
         <v>2369.9453564999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="26">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="17">
         <v>2023</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="20">
         <v>178.292993</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="21">
         <v>373.13802399999997</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
         <v>2023</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="15">
         <v>2124.0765519999995</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="16">
         <v>240.86470499999999</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="17">
         <v>2023</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="20">
         <v>151.1568140000002</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="21">
         <v>1504.8243845</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="15">
         <v>706.28140500000006</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="16">
         <v>5414.7526099999995</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="26">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
         <v>2023</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="20">
         <v>392.26620599999995</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="21">
         <v>191.89646400000001</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="15">
         <v>211.66009749999992</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="16">
         <v>485.33328999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="26">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="17">
         <v>2023</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="20">
         <v>165.05649700000001</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="21">
         <v>219.22205600000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="27">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="22">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="25">
         <v>640.56701299999975</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="26">
         <v>9570.9720990000096</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="24">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2022</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>1201.4794963735724</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="12">
         <v>7427.9531182678957</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="25">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
         <v>2022</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="15">
         <v>1607.8622455000009</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="16">
         <v>5821.7005465000011</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="26">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="17">
         <v>2022</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="20">
         <v>267.46322254492827</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="21">
         <v>730.18815115897996</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="25">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
         <v>2022</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="15">
         <v>2340.7125238203716</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="16">
         <v>2285.444314319247</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="17">
         <v>2022</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="20">
         <v>7702.4811960000279</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="21">
         <v>21599.020624499994</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="25">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
         <v>2022</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="15">
         <v>5854.6455174920256</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="16">
         <v>10674.690693708319</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+    <row r="27" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="17">
         <v>2022</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="20">
         <v>0</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="21">
         <v>151.33749399999994</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25">
+    <row r="28" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="15">
         <v>219.05785468132535</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="16">
         <v>2441.8827219863138</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="26">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="17">
         <v>2022</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="20">
         <v>184.92819399999996</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="21">
         <v>367.30739099999977</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="25">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="15">
         <v>1875.8210094624762</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="16">
         <v>275.23326524748489</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="26">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="17">
         <v>2022</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="20">
         <v>92.304446999999996</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="21">
         <v>1123.3304515000009</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="25">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="15">
         <v>1197.1119076522075</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="16">
         <v>5613.042542121013</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="17">
         <v>2022</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="20">
         <v>420.92174400601613</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="21">
         <v>60.102472337272822</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="25">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="15">
         <v>217.30371699999984</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="16">
         <v>507.68725900000004</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="26">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="17">
         <v>2022</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="20">
         <v>327.24836600725769</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="21">
         <v>118.46311830412017</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="27">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="25">
         <v>1046.5310830000001</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="26">
         <v>8668.995719499997</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2021</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>1086.1861302280706</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="12">
         <v>7333.8888963096661</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
         <v>2021</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="15">
         <v>1232.6569379999999</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="16">
         <v>5646.3255480000016</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="26">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="17">
         <v>2021</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="20">
         <v>68.894348050672434</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="21">
         <v>739.45562589060114</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="25">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="15">
         <v>2526.7504215013209</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="16">
         <v>2351.5569001765311</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="26">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="17">
         <v>2021</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="20">
         <v>6207.9558824999813</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="21">
         <v>23076.414333499957</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="25">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="15">
         <v>5641.0374347090019</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="16">
         <v>12797.610011778772</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="26">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="17">
         <v>2021</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="20">
         <v>0</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="21">
         <v>203.73361799999989</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="25">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="15">
         <v>360.00145953151792</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="16">
         <v>2725.880505359753</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="26">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="17">
         <v>2021</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="20">
         <v>152.38087200000007</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="21">
         <v>244.4721109999999</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="25">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="15">
         <v>2397.1492425354945</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="16">
         <v>303.53231606117362</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="26">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="17">
         <v>2021</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="20">
         <v>118.86526899999993</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="21">
         <v>676.90313300000071</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="25">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="15">
         <v>807.13767754697392</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="16">
         <v>5290.516152299967</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="26">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="17">
         <v>2021</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="20">
         <v>409.06773048202024</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="21">
         <v>49.981519689168515</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="25">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="15">
         <v>246.00207299999983</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="16">
         <v>551.85185399999989</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="17">
         <v>2021</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="20">
         <v>223.81409633635579</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="21">
         <v>141.29836052737949</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="27">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="22">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="25">
         <v>788.45547099999987</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="26">
         <v>8209.4224245000023</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="24">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>954.23394325584468</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="12">
         <v>3325.5106154036343</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="25">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="15">
         <v>1111.2033539999998</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="16">
         <v>3748.4260330000006</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="26">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="17">
         <v>2020</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="20">
         <v>55.435195709303443</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="21">
         <v>382.64252749923349</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="25">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="15">
         <v>1740.0288619566911</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="16">
         <v>2261.9851857089789</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="26">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="17">
         <v>2020</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="20">
         <v>6162.5330069999518</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="21">
         <v>21758.624534999977</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="25">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="15">
         <v>5329.0576211370344</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="16">
         <v>14466.434693075747</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="26">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="17">
         <v>2020</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="20">
         <v>0</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="21">
         <v>144.97949399999996</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="25">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="15">
         <v>333.62099851578108</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="16">
         <v>1991.2701508998111</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="26">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="17">
         <v>2020</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="20">
         <v>305.66880999999995</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="21">
         <v>361.65824999999978</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="25">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="15">
         <v>2523.4288022639857</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="16">
         <v>226.16196299989852</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="26">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="17">
         <v>2020</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="20">
         <v>653.71220049999954</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="21">
         <v>1411.2828200000004</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="25">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="15">
         <v>390.95142188545736</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="16">
         <v>4884.0369063934677</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="26">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="17">
         <v>2020</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="20">
         <v>423.86477605630387</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="21">
         <v>59.407460930098743</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="25">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="15">
         <v>247.35594199999983</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="16">
         <v>741.76900100000012</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="26">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="17">
         <v>2020</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="20">
         <v>335.78824985194308</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="21">
         <v>166.20916243277802</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="27">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="22">
         <v>2020</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="25">
         <v>740.96437749999996</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="26">
         <v>6986.4189054999943</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="24">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="11">
         <v>1090.970249751771</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="12">
         <v>7893.1649515855397</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="25">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="15">
         <v>598.79652350000015</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="16">
         <v>3439.3642365000001</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="26">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="17">
         <v>2019</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="20">
         <v>48.973612978495837</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="21">
         <v>332.20884208903698</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="25">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="15">
         <v>2195.0985547034074</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="16">
         <v>2705.4363840336664</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="26">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="17">
         <v>2019</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="20">
         <v>6711.0663830000012</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="21">
         <v>21226.421432999989</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="25">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="15">
         <v>5268.550992314651</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="16">
         <v>11889.242529760069</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="26">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="17">
         <v>2019</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="20">
         <v>0</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="21">
         <v>144.70569299999994</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="25">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="15">
         <v>232.60105306967995</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="16">
         <v>3441.7865001283853</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="26">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="17">
         <v>2019</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="20">
         <v>271.40434999999991</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="21">
         <v>430.61124000000018</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="25">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="15">
         <v>2535.6815491632533</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="16">
         <v>227.56814821926585</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="26">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="17">
         <v>2019</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="20">
         <v>1315.3206780000003</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="21">
         <v>1363.0807775000001</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="25">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="15">
         <v>309.52600122152364</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="16">
         <v>4985.1483550491048</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="26">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="17">
         <v>2019</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="20">
         <v>438.39616489671806</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="21">
         <v>123.68458011021175</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="25">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2019</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="15">
         <v>7.3934660000000108</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="16">
         <v>272.31534399999993</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="26">
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="17">
         <v>2019</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="20">
         <v>316.29340533274643</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="21">
         <v>149.43672742183529</v>
       </c>
     </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="27">
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="22">
         <v>2019</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="25">
         <v>931.39000949999968</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="26">
         <v>7394.5308700000014</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="28">
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="27">
         <v>2018</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="20">
         <v>1174.3714793724121</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="20">
         <v>3667.230329304351</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="29">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="28">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="15">
         <v>814.82134599999972</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="15">
         <v>3890.6842115000018</v>
       </c>
     </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="28">
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="27">
         <v>2018</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="20">
         <v>18.228371759854088</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="20">
         <v>417.64630923485754</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="29">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="28">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="15">
         <v>1566.6773467115481</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="15">
         <v>2206.4569898558352</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="28">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="27">
         <v>2018</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="20">
         <v>6500.3139614999973</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="20">
         <v>20390.174702999993</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="29">
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="28">
         <v>2018</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="15">
         <v>5642.4690605599399</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="15">
         <v>16449.84540479412</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="28">
+    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="27">
         <v>2018</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="20">
         <v>0</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="20">
         <v>164.0706569999999</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="29">
+    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="28">
         <v>2018</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="15">
         <v>188.0991989697701</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92" s="15">
         <v>3621.0472759213676</v>
       </c>
     </row>
-    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="28">
+    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="27">
         <v>2018</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="20">
         <v>235.95185500000005</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="20">
         <v>393.32365200000004</v>
       </c>
     </row>
-    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="29">
+    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="28">
         <v>2018</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="15">
         <v>4059.5521470234225</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="15">
         <v>603.87118498689938</v>
       </c>
     </row>
-    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="28">
+    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="27">
         <v>2018</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="20">
         <v>1624.1808609999996</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="20">
         <v>1713.1697449999997</v>
       </c>
     </row>
-    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="29">
+    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="28">
         <v>2018</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="15">
         <v>409.0057133760709</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="15">
         <v>5319.1280957526478</v>
       </c>
     </row>
-    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="28">
+    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="27">
         <v>2018</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="20">
         <v>423.13312225193351</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="20">
         <v>129.18211485241576</v>
       </c>
     </row>
-    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="29">
+    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="28">
         <v>2018</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="15">
         <v>0</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="15">
         <v>269.40520700000002</v>
       </c>
     </row>
-    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="28">
+    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="27">
         <v>2018</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="20">
         <v>735.44744633189043</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="20">
         <v>111.22896491798184</v>
       </c>
     </row>
-    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="29">
+    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="28">
         <v>2018</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="15">
         <v>942.7692370000002</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="15">
         <v>7818.2672840000023</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="23" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B101" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B102" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Carga_por_puerto_F.xlsx
+++ b/Carga_por_puerto_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5A5B7-76FB-455A-B2E7-B4F3C3457D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89BB63-5E57-4B22-B8A1-027C8B3DCDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_E_1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="34">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -131,16 +131,16 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Movimiento de carga por comercio exterior 2023</t>
-  </si>
-  <si>
     <t>(Miles de toneladas)</t>
   </si>
   <si>
     <t>Lázaro Cárdenas</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Julio 2025.</t>
+  </si>
+  <si>
+    <t>Movimiento de carga por comercio exterior 2024</t>
   </si>
 </sst>
 </file>
@@ -414,55 +414,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -525,6 +476,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -540,10 +498,52 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -560,20 +560,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}" name="Tabla1" displayName="Tabla1" ref="B4:F100" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="B4:F100" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}" name="Tabla1" displayName="Tabla1" ref="B4:F116" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F116" xr:uid="{55956959-C7AE-4512-8481-F1C954C45EAF}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C1F9F9B-8E6A-4E79-BB18-0DE53DACE1B1}" name="Año" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{BEE4B670-A008-45AE-BEBE-C5C2D0602D26}" name="Puerto o frontera" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="3" xr3:uid="{677275A7-487B-4908-B392-E222205B2DF9}" name="Entidad federativa" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="4" xr3:uid="{A7F965B2-FC03-4EC6-A6DD-09A8B660DD51}" name="Exportaciones " dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="5" xr3:uid="{EE448ACD-528E-41AE-9038-02D69893347A}" name="Importaciones" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="1" xr3:uid="{6C1F9F9B-8E6A-4E79-BB18-0DE53DACE1B1}" name="Año" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{BEE4B670-A008-45AE-BEBE-C5C2D0602D26}" name="Puerto o frontera" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{677275A7-487B-4908-B392-E222205B2DF9}" name="Entidad federativa" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="4" xr3:uid="{A7F965B2-FC03-4EC6-A6DD-09A8B660DD51}" name="Exportaciones " dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="5" xr3:uid="{EE448ACD-528E-41AE-9038-02D69893347A}" name="Importaciones" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:F102"/>
+  <dimension ref="B2:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.3984375" style="2" customWidth="1"/>
@@ -819,17 +819,17 @@
     <col min="7" max="16384" width="11.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -846,9 +846,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>11</v>
@@ -857,15 +857,15 @@
         <v>5</v>
       </c>
       <c r="E5" s="11">
-        <v>877.62882300000001</v>
+        <v>1012.3583389999993</v>
       </c>
       <c r="F5" s="12">
-        <v>7814.2296740000102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+        <v>8746.6318277676583</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
@@ -874,15 +874,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="15">
-        <v>1485.4754360000002</v>
+        <v>1889.6374164999995</v>
       </c>
       <c r="F6" s="16">
-        <v>7066.1929925000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+        <v>7365.4255319999893</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>13</v>
@@ -891,15 +891,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="20">
-        <v>36.539276999999991</v>
+        <v>264.39729500000004</v>
       </c>
       <c r="F7" s="21">
-        <v>844.97558500000105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+        <v>1159.0195160000019</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>14</v>
@@ -908,15 +908,15 @@
         <v>8</v>
       </c>
       <c r="E8" s="15">
-        <v>2713.5835829999983</v>
+        <v>3004.6082783838369</v>
       </c>
       <c r="F8" s="16">
-        <v>2135.016709</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+        <v>2589.2355336767678</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>15</v>
@@ -925,15 +925,15 @@
         <v>9</v>
       </c>
       <c r="E9" s="20">
-        <v>7184.8739350000014</v>
+        <v>6637.164262999986</v>
       </c>
       <c r="F9" s="21">
-        <v>22339.037281500001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+        <v>23900.15878799995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>16</v>
@@ -942,15 +942,15 @@
         <v>3</v>
       </c>
       <c r="E10" s="15">
-        <v>5852.276715</v>
+        <v>6554.0970834747322</v>
       </c>
       <c r="F10" s="16">
-        <v>10352.79688</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+        <v>11279.021223414155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>17</v>
@@ -962,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="21">
-        <v>150.213829</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+        <v>224.246534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>18</v>
@@ -976,15 +976,15 @@
         <v>9</v>
       </c>
       <c r="E12" s="15">
-        <v>190.29548149999999</v>
+        <v>144.4155045</v>
       </c>
       <c r="F12" s="16">
-        <v>2369.9453564999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+        <v>2260.4626923535357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>19</v>
@@ -993,15 +993,15 @@
         <v>10</v>
       </c>
       <c r="E13" s="20">
-        <v>178.292993</v>
+        <v>273.89317400000004</v>
       </c>
       <c r="F13" s="21">
-        <v>373.13802399999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+        <v>413.57078500000068</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -1010,32 +1010,32 @@
         <v>8</v>
       </c>
       <c r="E14" s="15">
-        <v>2124.0765519999995</v>
+        <v>870.27282003030314</v>
       </c>
       <c r="F14" s="16">
-        <v>240.86470499999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+        <v>142.09139200000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="20">
-        <v>151.1568140000002</v>
+        <v>212.5172284999999</v>
       </c>
       <c r="F15" s="21">
-        <v>1504.8243845</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+        <v>1371.9500904999957</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>21</v>
@@ -1044,15 +1044,15 @@
         <v>4</v>
       </c>
       <c r="E16" s="15">
-        <v>706.28140500000006</v>
+        <v>494.7623713535354</v>
       </c>
       <c r="F16" s="16">
-        <v>5414.7526099999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+        <v>4209.1150881212143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>22</v>
@@ -1061,15 +1061,15 @@
         <v>7</v>
       </c>
       <c r="E17" s="20">
-        <v>392.26620599999995</v>
+        <v>336.64720167676762</v>
       </c>
       <c r="F17" s="21">
-        <v>191.89646400000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+        <v>137.55581099999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>23</v>
@@ -1078,15 +1078,15 @@
         <v>9</v>
       </c>
       <c r="E18" s="15">
-        <v>211.66009749999992</v>
+        <v>193.66293699999997</v>
       </c>
       <c r="F18" s="16">
-        <v>485.33328999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+        <v>472.08392450000025</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>24</v>
@@ -1095,15 +1095,15 @@
         <v>7</v>
       </c>
       <c r="E19" s="20">
-        <v>165.05649700000001</v>
+        <v>114.14892600000002</v>
       </c>
       <c r="F19" s="21">
-        <v>219.22205600000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+        <v>103.46205500000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>25</v>
@@ -1112,15 +1112,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="25">
-        <v>640.56701299999975</v>
+        <v>377.8823134999999</v>
       </c>
       <c r="F20" s="26">
-        <v>9570.9720990000096</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>9272.7053130000295</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>11</v>
@@ -1129,15 +1129,15 @@
         <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>1201.4794963735724</v>
+        <v>877.62882300000001</v>
       </c>
       <c r="F21" s="12">
-        <v>7427.9531182678957</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>7814.2296740000102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>12</v>
@@ -1146,15 +1146,15 @@
         <v>9</v>
       </c>
       <c r="E22" s="15">
-        <v>1607.8622455000009</v>
+        <v>1485.4754360000002</v>
       </c>
       <c r="F22" s="16">
-        <v>5821.7005465000011</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>7066.1929925000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>13</v>
@@ -1163,15 +1163,15 @@
         <v>2</v>
       </c>
       <c r="E23" s="20">
-        <v>267.46322254492827</v>
+        <v>36.539276999999991</v>
       </c>
       <c r="F23" s="21">
-        <v>730.18815115897996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>844.97558500000105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>14</v>
@@ -1180,15 +1180,15 @@
         <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>2340.7125238203716</v>
+        <v>2713.5835829999983</v>
       </c>
       <c r="F24" s="16">
-        <v>2285.444314319247</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2135.016709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>15</v>
@@ -1197,15 +1197,15 @@
         <v>9</v>
       </c>
       <c r="E25" s="20">
-        <v>7702.4811960000279</v>
+        <v>7184.8739350000014</v>
       </c>
       <c r="F25" s="21">
-        <v>21599.020624499994</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>22339.037281500001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>16</v>
@@ -1214,15 +1214,15 @@
         <v>3</v>
       </c>
       <c r="E26" s="15">
-        <v>5854.6455174920256</v>
+        <v>5852.276715</v>
       </c>
       <c r="F26" s="16">
-        <v>10674.690693708319</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+        <v>10352.79688</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>17</v>
@@ -1234,12 +1234,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="21">
-        <v>151.33749399999994</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+        <v>150.213829</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>18</v>
@@ -1248,15 +1248,15 @@
         <v>9</v>
       </c>
       <c r="E28" s="15">
-        <v>219.05785468132535</v>
+        <v>190.29548149999999</v>
       </c>
       <c r="F28" s="16">
-        <v>2441.8827219863138</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2369.9453564999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>19</v>
@@ -1265,15 +1265,15 @@
         <v>10</v>
       </c>
       <c r="E29" s="20">
-        <v>184.92819399999996</v>
+        <v>178.292993</v>
       </c>
       <c r="F29" s="21">
-        <v>367.30739099999977</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>373.13802399999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>20</v>
@@ -1282,32 +1282,32 @@
         <v>8</v>
       </c>
       <c r="E30" s="15">
-        <v>1875.8210094624762</v>
+        <v>2124.0765519999995</v>
       </c>
       <c r="F30" s="16">
-        <v>275.23326524748489</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>240.86470499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="20">
-        <v>92.304446999999996</v>
+        <v>151.1568140000002</v>
       </c>
       <c r="F31" s="21">
-        <v>1123.3304515000009</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1504.8243845</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>21</v>
@@ -1316,15 +1316,15 @@
         <v>4</v>
       </c>
       <c r="E32" s="15">
-        <v>1197.1119076522075</v>
+        <v>706.28140500000006</v>
       </c>
       <c r="F32" s="16">
-        <v>5613.042542121013</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>5414.7526099999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>22</v>
@@ -1333,15 +1333,15 @@
         <v>7</v>
       </c>
       <c r="E33" s="20">
-        <v>420.92174400601613</v>
+        <v>392.26620599999995</v>
       </c>
       <c r="F33" s="21">
-        <v>60.102472337272822</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>191.89646400000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>23</v>
@@ -1350,15 +1350,15 @@
         <v>9</v>
       </c>
       <c r="E34" s="15">
-        <v>217.30371699999984</v>
+        <v>211.66009749999992</v>
       </c>
       <c r="F34" s="16">
-        <v>507.68725900000004</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>485.33328999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>24</v>
@@ -1367,15 +1367,15 @@
         <v>7</v>
       </c>
       <c r="E35" s="20">
-        <v>327.24836600725769</v>
+        <v>165.05649700000001</v>
       </c>
       <c r="F35" s="21">
-        <v>118.46311830412017</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>219.22205600000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>25</v>
@@ -1384,15 +1384,15 @@
         <v>10</v>
       </c>
       <c r="E36" s="25">
-        <v>1046.5310830000001</v>
+        <v>640.56701299999975</v>
       </c>
       <c r="F36" s="26">
-        <v>8668.995719499997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>9570.9720990000096</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
@@ -1401,15 +1401,15 @@
         <v>5</v>
       </c>
       <c r="E37" s="11">
-        <v>1086.1861302280706</v>
+        <v>1201.4794963735724</v>
       </c>
       <c r="F37" s="12">
-        <v>7333.8888963096661</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>7427.9531182678957</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>12</v>
@@ -1418,15 +1418,15 @@
         <v>9</v>
       </c>
       <c r="E38" s="15">
-        <v>1232.6569379999999</v>
+        <v>1607.8622455000009</v>
       </c>
       <c r="F38" s="16">
-        <v>5646.3255480000016</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>5821.7005465000011</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>13</v>
@@ -1435,15 +1435,15 @@
         <v>2</v>
       </c>
       <c r="E39" s="20">
-        <v>68.894348050672434</v>
+        <v>267.46322254492827</v>
       </c>
       <c r="F39" s="21">
-        <v>739.45562589060114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>730.18815115897996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>14</v>
@@ -1452,15 +1452,15 @@
         <v>8</v>
       </c>
       <c r="E40" s="15">
-        <v>2526.7504215013209</v>
+        <v>2340.7125238203716</v>
       </c>
       <c r="F40" s="16">
-        <v>2351.5569001765311</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2285.444314319247</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>15</v>
@@ -1469,15 +1469,15 @@
         <v>9</v>
       </c>
       <c r="E41" s="20">
-        <v>6207.9558824999813</v>
+        <v>7702.4811960000279</v>
       </c>
       <c r="F41" s="21">
-        <v>23076.414333499957</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>21599.020624499994</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>16</v>
@@ -1486,15 +1486,15 @@
         <v>3</v>
       </c>
       <c r="E42" s="15">
-        <v>5641.0374347090019</v>
+        <v>5854.6455174920256</v>
       </c>
       <c r="F42" s="16">
-        <v>12797.610011778772</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>10674.690693708319</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>17</v>
@@ -1506,12 +1506,12 @@
         <v>0</v>
       </c>
       <c r="F43" s="21">
-        <v>203.73361799999989</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>151.33749399999994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>18</v>
@@ -1520,15 +1520,15 @@
         <v>9</v>
       </c>
       <c r="E44" s="15">
-        <v>360.00145953151792</v>
+        <v>219.05785468132535</v>
       </c>
       <c r="F44" s="16">
-        <v>2725.880505359753</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2441.8827219863138</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>19</v>
@@ -1537,15 +1537,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="20">
-        <v>152.38087200000007</v>
+        <v>184.92819399999996</v>
       </c>
       <c r="F45" s="21">
-        <v>244.4721109999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>367.30739099999977</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>20</v>
@@ -1554,32 +1554,32 @@
         <v>8</v>
       </c>
       <c r="E46" s="15">
-        <v>2397.1492425354945</v>
+        <v>1875.8210094624762</v>
       </c>
       <c r="F46" s="16">
-        <v>303.53231606117362</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>275.23326524748489</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="20">
-        <v>118.86526899999993</v>
+        <v>92.304446999999996</v>
       </c>
       <c r="F47" s="21">
-        <v>676.90313300000071</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1123.3304515000009</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>21</v>
@@ -1588,15 +1588,15 @@
         <v>4</v>
       </c>
       <c r="E48" s="15">
-        <v>807.13767754697392</v>
+        <v>1197.1119076522075</v>
       </c>
       <c r="F48" s="16">
-        <v>5290.516152299967</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>5613.042542121013</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>22</v>
@@ -1605,15 +1605,15 @@
         <v>7</v>
       </c>
       <c r="E49" s="20">
-        <v>409.06773048202024</v>
+        <v>420.92174400601613</v>
       </c>
       <c r="F49" s="21">
-        <v>49.981519689168515</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>60.102472337272822</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>23</v>
@@ -1622,15 +1622,15 @@
         <v>9</v>
       </c>
       <c r="E50" s="15">
-        <v>246.00207299999983</v>
+        <v>217.30371699999984</v>
       </c>
       <c r="F50" s="16">
-        <v>551.85185399999989</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>507.68725900000004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>24</v>
@@ -1639,15 +1639,15 @@
         <v>7</v>
       </c>
       <c r="E51" s="20">
-        <v>223.81409633635579</v>
+        <v>327.24836600725769</v>
       </c>
       <c r="F51" s="21">
-        <v>141.29836052737949</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>118.46311830412017</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>25</v>
@@ -1656,15 +1656,15 @@
         <v>10</v>
       </c>
       <c r="E52" s="25">
-        <v>788.45547099999987</v>
+        <v>1046.5310830000001</v>
       </c>
       <c r="F52" s="26">
-        <v>8209.4224245000023</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>8668.995719499997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>11</v>
@@ -1673,15 +1673,15 @@
         <v>5</v>
       </c>
       <c r="E53" s="11">
-        <v>954.23394325584468</v>
+        <v>1086.1861302280706</v>
       </c>
       <c r="F53" s="12">
-        <v>3325.5106154036343</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>7333.8888963096661</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>12</v>
@@ -1690,15 +1690,15 @@
         <v>9</v>
       </c>
       <c r="E54" s="15">
-        <v>1111.2033539999998</v>
+        <v>1232.6569379999999</v>
       </c>
       <c r="F54" s="16">
-        <v>3748.4260330000006</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>5646.3255480000016</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>13</v>
@@ -1707,15 +1707,15 @@
         <v>2</v>
       </c>
       <c r="E55" s="20">
-        <v>55.435195709303443</v>
+        <v>68.894348050672434</v>
       </c>
       <c r="F55" s="21">
-        <v>382.64252749923349</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>739.45562589060114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>14</v>
@@ -1724,15 +1724,15 @@
         <v>8</v>
       </c>
       <c r="E56" s="15">
-        <v>1740.0288619566911</v>
+        <v>2526.7504215013209</v>
       </c>
       <c r="F56" s="16">
-        <v>2261.9851857089789</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2351.5569001765311</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>15</v>
@@ -1741,15 +1741,15 @@
         <v>9</v>
       </c>
       <c r="E57" s="20">
-        <v>6162.5330069999518</v>
+        <v>6207.9558824999813</v>
       </c>
       <c r="F57" s="21">
-        <v>21758.624534999977</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>23076.414333499957</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>16</v>
@@ -1758,15 +1758,15 @@
         <v>3</v>
       </c>
       <c r="E58" s="15">
-        <v>5329.0576211370344</v>
+        <v>5641.0374347090019</v>
       </c>
       <c r="F58" s="16">
-        <v>14466.434693075747</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>12797.610011778772</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>17</v>
@@ -1778,12 +1778,12 @@
         <v>0</v>
       </c>
       <c r="F59" s="21">
-        <v>144.97949399999996</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>203.73361799999989</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>18</v>
@@ -1792,15 +1792,15 @@
         <v>9</v>
       </c>
       <c r="E60" s="15">
-        <v>333.62099851578108</v>
+        <v>360.00145953151792</v>
       </c>
       <c r="F60" s="16">
-        <v>1991.2701508998111</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2725.880505359753</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>19</v>
@@ -1809,15 +1809,15 @@
         <v>10</v>
       </c>
       <c r="E61" s="20">
-        <v>305.66880999999995</v>
+        <v>152.38087200000007</v>
       </c>
       <c r="F61" s="21">
-        <v>361.65824999999978</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>244.4721109999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>20</v>
@@ -1826,32 +1826,32 @@
         <v>8</v>
       </c>
       <c r="E62" s="15">
-        <v>2523.4288022639857</v>
+        <v>2397.1492425354945</v>
       </c>
       <c r="F62" s="16">
-        <v>226.16196299989852</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>303.53231606117362</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="20">
-        <v>653.71220049999954</v>
+        <v>118.86526899999993</v>
       </c>
       <c r="F63" s="21">
-        <v>1411.2828200000004</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>676.90313300000071</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>21</v>
@@ -1860,15 +1860,15 @@
         <v>4</v>
       </c>
       <c r="E64" s="15">
-        <v>390.95142188545736</v>
+        <v>807.13767754697392</v>
       </c>
       <c r="F64" s="16">
-        <v>4884.0369063934677</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>5290.516152299967</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>22</v>
@@ -1877,15 +1877,15 @@
         <v>7</v>
       </c>
       <c r="E65" s="20">
-        <v>423.86477605630387</v>
+        <v>409.06773048202024</v>
       </c>
       <c r="F65" s="21">
-        <v>59.407460930098743</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>49.981519689168515</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>23</v>
@@ -1894,15 +1894,15 @@
         <v>9</v>
       </c>
       <c r="E66" s="15">
-        <v>247.35594199999983</v>
+        <v>246.00207299999983</v>
       </c>
       <c r="F66" s="16">
-        <v>741.76900100000012</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>551.85185399999989</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>24</v>
@@ -1911,15 +1911,15 @@
         <v>7</v>
       </c>
       <c r="E67" s="20">
-        <v>335.78824985194308</v>
+        <v>223.81409633635579</v>
       </c>
       <c r="F67" s="21">
-        <v>166.20916243277802</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>141.29836052737949</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="22">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>25</v>
@@ -1928,15 +1928,15 @@
         <v>10</v>
       </c>
       <c r="E68" s="25">
-        <v>740.96437749999996</v>
+        <v>788.45547099999987</v>
       </c>
       <c r="F68" s="26">
-        <v>6986.4189054999943</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>8209.4224245000023</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>11</v>
@@ -1945,15 +1945,15 @@
         <v>5</v>
       </c>
       <c r="E69" s="11">
-        <v>1090.970249751771</v>
+        <v>954.23394325584468</v>
       </c>
       <c r="F69" s="12">
-        <v>7893.1649515855397</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>3325.5106154036343</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>12</v>
@@ -1962,15 +1962,15 @@
         <v>9</v>
       </c>
       <c r="E70" s="15">
-        <v>598.79652350000015</v>
+        <v>1111.2033539999998</v>
       </c>
       <c r="F70" s="16">
-        <v>3439.3642365000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>3748.4260330000006</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>13</v>
@@ -1979,15 +1979,15 @@
         <v>2</v>
       </c>
       <c r="E71" s="20">
-        <v>48.973612978495837</v>
+        <v>55.435195709303443</v>
       </c>
       <c r="F71" s="21">
-        <v>332.20884208903698</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>382.64252749923349</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>14</v>
@@ -1996,15 +1996,15 @@
         <v>8</v>
       </c>
       <c r="E72" s="15">
-        <v>2195.0985547034074</v>
+        <v>1740.0288619566911</v>
       </c>
       <c r="F72" s="16">
-        <v>2705.4363840336664</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>2261.9851857089789</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>15</v>
@@ -2013,15 +2013,15 @@
         <v>9</v>
       </c>
       <c r="E73" s="20">
-        <v>6711.0663830000012</v>
+        <v>6162.5330069999518</v>
       </c>
       <c r="F73" s="21">
-        <v>21226.421432999989</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>21758.624534999977</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>16</v>
@@ -2030,15 +2030,15 @@
         <v>3</v>
       </c>
       <c r="E74" s="15">
-        <v>5268.550992314651</v>
+        <v>5329.0576211370344</v>
       </c>
       <c r="F74" s="16">
-        <v>11889.242529760069</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>14466.434693075747</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>17</v>
@@ -2050,12 +2050,12 @@
         <v>0</v>
       </c>
       <c r="F75" s="21">
-        <v>144.70569299999994</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>144.97949399999996</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>18</v>
@@ -2064,15 +2064,15 @@
         <v>9</v>
       </c>
       <c r="E76" s="15">
-        <v>232.60105306967995</v>
+        <v>333.62099851578108</v>
       </c>
       <c r="F76" s="16">
-        <v>3441.7865001283853</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1991.2701508998111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>19</v>
@@ -2081,15 +2081,15 @@
         <v>10</v>
       </c>
       <c r="E77" s="20">
-        <v>271.40434999999991</v>
+        <v>305.66880999999995</v>
       </c>
       <c r="F77" s="21">
-        <v>430.61124000000018</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>361.65824999999978</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>20</v>
@@ -2098,32 +2098,32 @@
         <v>8</v>
       </c>
       <c r="E78" s="15">
-        <v>2535.6815491632533</v>
+        <v>2523.4288022639857</v>
       </c>
       <c r="F78" s="16">
-        <v>227.56814821926585</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>226.16196299989852</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="20">
-        <v>1315.3206780000003</v>
+        <v>653.71220049999954</v>
       </c>
       <c r="F79" s="21">
-        <v>1363.0807775000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>1411.2828200000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>21</v>
@@ -2132,15 +2132,15 @@
         <v>4</v>
       </c>
       <c r="E80" s="15">
-        <v>309.52600122152364</v>
+        <v>390.95142188545736</v>
       </c>
       <c r="F80" s="16">
-        <v>4985.1483550491048</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>4884.0369063934677</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>22</v>
@@ -2149,15 +2149,15 @@
         <v>7</v>
       </c>
       <c r="E81" s="20">
-        <v>438.39616489671806</v>
+        <v>423.86477605630387</v>
       </c>
       <c r="F81" s="21">
-        <v>123.68458011021175</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>59.407460930098743</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>23</v>
@@ -2166,15 +2166,15 @@
         <v>9</v>
       </c>
       <c r="E82" s="15">
-        <v>7.3934660000000108</v>
+        <v>247.35594199999983</v>
       </c>
       <c r="F82" s="16">
-        <v>272.31534399999993</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>741.76900100000012</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>24</v>
@@ -2183,15 +2183,15 @@
         <v>7</v>
       </c>
       <c r="E83" s="20">
-        <v>316.29340533274643</v>
+        <v>335.78824985194308</v>
       </c>
       <c r="F83" s="21">
-        <v>149.43672742183529</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>166.20916243277802</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C84" s="23" t="s">
         <v>25</v>
@@ -2200,32 +2200,32 @@
         <v>10</v>
       </c>
       <c r="E84" s="25">
-        <v>931.39000949999968</v>
+        <v>740.96437749999996</v>
       </c>
       <c r="F84" s="26">
-        <v>7394.5308700000014</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="27">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="18" t="s">
+        <v>6986.4189054999943</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="20">
-        <v>1174.3714793724121</v>
-      </c>
-      <c r="F85" s="20">
-        <v>3667.230329304351</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="28">
-        <v>2018</v>
+      <c r="E85" s="11">
+        <v>1090.970249751771</v>
+      </c>
+      <c r="F85" s="12">
+        <v>7893.1649515855397</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="13">
+        <v>2019</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>12</v>
@@ -2234,15 +2234,15 @@
         <v>9</v>
       </c>
       <c r="E86" s="15">
-        <v>814.82134599999972</v>
-      </c>
-      <c r="F86" s="15">
-        <v>3890.6842115000018</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="27">
-        <v>2018</v>
+        <v>598.79652350000015</v>
+      </c>
+      <c r="F86" s="16">
+        <v>3439.3642365000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="17">
+        <v>2019</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>13</v>
@@ -2251,15 +2251,15 @@
         <v>2</v>
       </c>
       <c r="E87" s="20">
-        <v>18.228371759854088</v>
-      </c>
-      <c r="F87" s="20">
-        <v>417.64630923485754</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="28">
-        <v>2018</v>
+        <v>48.973612978495837</v>
+      </c>
+      <c r="F87" s="21">
+        <v>332.20884208903698</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="13">
+        <v>2019</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>14</v>
@@ -2268,15 +2268,15 @@
         <v>8</v>
       </c>
       <c r="E88" s="15">
-        <v>1566.6773467115481</v>
-      </c>
-      <c r="F88" s="15">
-        <v>2206.4569898558352</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="27">
-        <v>2018</v>
+        <v>2195.0985547034074</v>
+      </c>
+      <c r="F88" s="16">
+        <v>2705.4363840336664</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="17">
+        <v>2019</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>15</v>
@@ -2285,15 +2285,15 @@
         <v>9</v>
       </c>
       <c r="E89" s="20">
-        <v>6500.3139614999973</v>
-      </c>
-      <c r="F89" s="20">
-        <v>20390.174702999993</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="28">
-        <v>2018</v>
+        <v>6711.0663830000012</v>
+      </c>
+      <c r="F89" s="21">
+        <v>21226.421432999989</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="13">
+        <v>2019</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>16</v>
@@ -2302,15 +2302,15 @@
         <v>3</v>
       </c>
       <c r="E90" s="15">
-        <v>5642.4690605599399</v>
-      </c>
-      <c r="F90" s="15">
-        <v>16449.84540479412</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="27">
-        <v>2018</v>
+        <v>5268.550992314651</v>
+      </c>
+      <c r="F90" s="16">
+        <v>11889.242529760069</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="17">
+        <v>2019</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>17</v>
@@ -2321,13 +2321,13 @@
       <c r="E91" s="20">
         <v>0</v>
       </c>
-      <c r="F91" s="20">
-        <v>164.0706569999999</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="28">
-        <v>2018</v>
+      <c r="F91" s="21">
+        <v>144.70569299999994</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="13">
+        <v>2019</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>18</v>
@@ -2336,15 +2336,15 @@
         <v>9</v>
       </c>
       <c r="E92" s="15">
-        <v>188.0991989697701</v>
-      </c>
-      <c r="F92" s="15">
-        <v>3621.0472759213676</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="27">
-        <v>2018</v>
+        <v>232.60105306967995</v>
+      </c>
+      <c r="F92" s="16">
+        <v>3441.7865001283853</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="17">
+        <v>2019</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>19</v>
@@ -2353,15 +2353,15 @@
         <v>10</v>
       </c>
       <c r="E93" s="20">
-        <v>235.95185500000005</v>
-      </c>
-      <c r="F93" s="20">
-        <v>393.32365200000004</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="28">
-        <v>2018</v>
+        <v>271.40434999999991</v>
+      </c>
+      <c r="F93" s="21">
+        <v>430.61124000000018</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="13">
+        <v>2019</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>20</v>
@@ -2370,32 +2370,32 @@
         <v>8</v>
       </c>
       <c r="E94" s="15">
-        <v>4059.5521470234225</v>
-      </c>
-      <c r="F94" s="15">
-        <v>603.87118498689938</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="27">
-        <v>2018</v>
+        <v>2535.6815491632533</v>
+      </c>
+      <c r="F94" s="16">
+        <v>227.56814821926585</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="17">
+        <v>2019</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="20">
-        <v>1624.1808609999996</v>
-      </c>
-      <c r="F95" s="20">
-        <v>1713.1697449999997</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="28">
-        <v>2018</v>
+        <v>1315.3206780000003</v>
+      </c>
+      <c r="F95" s="21">
+        <v>1363.0807775000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="13">
+        <v>2019</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>21</v>
@@ -2404,15 +2404,15 @@
         <v>4</v>
       </c>
       <c r="E96" s="15">
-        <v>409.0057133760709</v>
-      </c>
-      <c r="F96" s="15">
-        <v>5319.1280957526478</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="27">
-        <v>2018</v>
+        <v>309.52600122152364</v>
+      </c>
+      <c r="F96" s="16">
+        <v>4985.1483550491048</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="17">
+        <v>2019</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>22</v>
@@ -2421,15 +2421,15 @@
         <v>7</v>
       </c>
       <c r="E97" s="20">
-        <v>423.13312225193351</v>
-      </c>
-      <c r="F97" s="20">
-        <v>129.18211485241576</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="28">
-        <v>2018</v>
+        <v>438.39616489671806</v>
+      </c>
+      <c r="F97" s="21">
+        <v>123.68458011021175</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="13">
+        <v>2019</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>23</v>
@@ -2438,15 +2438,15 @@
         <v>9</v>
       </c>
       <c r="E98" s="15">
-        <v>0</v>
-      </c>
-      <c r="F98" s="15">
-        <v>269.40520700000002</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="27">
-        <v>2018</v>
+        <v>7.3934660000000108</v>
+      </c>
+      <c r="F98" s="16">
+        <v>272.31534399999993</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="17">
+        <v>2019</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>24</v>
@@ -2455,39 +2455,311 @@
         <v>7</v>
       </c>
       <c r="E99" s="20">
+        <v>316.29340533274643</v>
+      </c>
+      <c r="F99" s="21">
+        <v>149.43672742183529</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="22">
+        <v>2019</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="25">
+        <v>931.39000949999968</v>
+      </c>
+      <c r="F100" s="26">
+        <v>7394.5308700000014</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1174.3714793724121</v>
+      </c>
+      <c r="F101" s="20">
+        <v>3667.230329304351</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="15">
+        <v>814.82134599999972</v>
+      </c>
+      <c r="F102" s="15">
+        <v>3890.6842115000018</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="20">
+        <v>18.228371759854088</v>
+      </c>
+      <c r="F103" s="20">
+        <v>417.64630923485754</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1566.6773467115481</v>
+      </c>
+      <c r="F104" s="15">
+        <v>2206.4569898558352</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="20">
+        <v>6500.3139614999973</v>
+      </c>
+      <c r="F105" s="20">
+        <v>20390.174702999993</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="15">
+        <v>5642.4690605599399</v>
+      </c>
+      <c r="F106" s="15">
+        <v>16449.84540479412</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="20">
+        <v>0</v>
+      </c>
+      <c r="F107" s="20">
+        <v>164.0706569999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="15">
+        <v>188.0991989697701</v>
+      </c>
+      <c r="F108" s="15">
+        <v>3621.0472759213676</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="20">
+        <v>235.95185500000005</v>
+      </c>
+      <c r="F109" s="20">
+        <v>393.32365200000004</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="15">
+        <v>4059.5521470234225</v>
+      </c>
+      <c r="F110" s="15">
+        <v>603.87118498689938</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="20">
+        <v>1624.1808609999996</v>
+      </c>
+      <c r="F111" s="20">
+        <v>1713.1697449999997</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="15">
+        <v>409.0057133760709</v>
+      </c>
+      <c r="F112" s="15">
+        <v>5319.1280957526478</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="20">
+        <v>423.13312225193351</v>
+      </c>
+      <c r="F113" s="20">
+        <v>129.18211485241576</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="28">
+        <v>2018</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="15">
+        <v>0</v>
+      </c>
+      <c r="F114" s="15">
+        <v>269.40520700000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="20">
         <v>735.44744633189043</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F115" s="20">
         <v>111.22896491798184</v>
       </c>
     </row>
-    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="28">
+    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="28">
         <v>2018</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E116" s="15">
         <v>942.7692370000002</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F116" s="15">
         <v>7818.2672840000023</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B101" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B102" s="2" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F102" s="30"/>
+      <c r="F118" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
